--- a/data/raw/wisconsin_raw_2024.xlsx
+++ b/data/raw/wisconsin_raw_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1828130637276/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C7843457-F49F-1E48-98BC-A679444ED453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A49A8DC-9A70-C647-98A3-2D2884B7BADC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465977C6-F3CA-FC47-9F9B-D969FA08610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25220" yWindow="-25600" windowWidth="26860" windowHeight="15960" xr2:uid="{0B132D00-29F1-AB48-A6AD-646657250CB8}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20480" xr2:uid="{0B132D00-29F1-AB48-A6AD-646657250CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,7 +325,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +662,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,8 +771,8 @@
       <c r="N2" s="10">
         <v>436</v>
       </c>
-      <c r="O2" s="12">
-        <v>8.0556727119358911</v>
+      <c r="O2">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -819,8 +818,8 @@
       <c r="N3" s="10">
         <v>202.7</v>
       </c>
-      <c r="O3" s="12">
-        <v>8.1558676937018575</v>
+      <c r="O3">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -866,8 +865,8 @@
       <c r="N4" s="10">
         <v>409.8</v>
       </c>
-      <c r="O4" s="12">
-        <v>7.8065241844769373</v>
+      <c r="O4">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -913,8 +912,8 @@
       <c r="N5" s="10">
         <v>327.3</v>
       </c>
-      <c r="O5" s="12">
-        <v>7.7248378911756399</v>
+      <c r="O5">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -960,8 +959,8 @@
       <c r="N6" s="10">
         <v>123.7</v>
       </c>
-      <c r="O6" s="12">
-        <v>7.6176250933532526</v>
+      <c r="O6">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1007,8 +1006,8 @@
       <c r="N7" s="10">
         <v>240</v>
       </c>
-      <c r="O7" s="12">
-        <v>7.4431160817585829</v>
+      <c r="O7">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1054,8 +1053,8 @@
       <c r="N8" s="10">
         <v>130.30000000000001</v>
       </c>
-      <c r="O8" s="12">
-        <v>7.7195467422096158</v>
+      <c r="O8">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1101,8 +1100,8 @@
       <c r="N9" s="10">
         <v>328.7</v>
       </c>
-      <c r="O9" s="12">
-        <v>8.0302182428651392</v>
+      <c r="O9">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1148,8 +1147,8 @@
       <c r="N10" s="10">
         <v>291.89999999999998</v>
       </c>
-      <c r="O10" s="12">
-        <v>7.9179810725552136</v>
+      <c r="O10">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1195,8 +1194,8 @@
       <c r="N11" s="10">
         <v>397.8</v>
       </c>
-      <c r="O11" s="12">
-        <v>10.827168796234032</v>
+      <c r="O11">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1242,8 +1241,8 @@
       <c r="N12" s="10">
         <v>182</v>
       </c>
-      <c r="O12" s="12">
-        <v>8.0808080808080778</v>
+      <c r="O12">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1289,8 +1288,8 @@
       <c r="N13" s="10">
         <v>447.2</v>
       </c>
-      <c r="O13" s="12">
-        <v>7.8318219291014017</v>
+      <c r="O13">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1336,8 +1335,8 @@
       <c r="N14" s="10">
         <v>303.89999999999998</v>
       </c>
-      <c r="O14" s="12">
-        <v>8.8755622188905647</v>
+      <c r="O14">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1383,8 +1382,8 @@
       <c r="N15" s="10">
         <v>318.5</v>
       </c>
-      <c r="O15" s="12">
-        <v>8.1073283323716101</v>
+      <c r="O15">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1430,8 +1429,8 @@
       <c r="N16" s="10">
         <v>80.8</v>
       </c>
-      <c r="O16" s="12">
-        <v>8.2860385925085147</v>
+      <c r="O16">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1477,8 +1476,8 @@
       <c r="N17" s="10">
         <v>437.5</v>
       </c>
-      <c r="O17" s="12">
-        <v>7.7782462057335522</v>
+      <c r="O17">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1524,8 +1523,8 @@
       <c r="N18" s="10">
         <v>153.5</v>
       </c>
-      <c r="O18" s="12">
-        <v>7.3627036813518343</v>
+      <c r="O18">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1571,8 +1570,8 @@
       <c r="N19" s="10">
         <v>379</v>
       </c>
-      <c r="O19" s="12">
-        <v>7.8531485533673724</v>
+      <c r="O19">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1618,8 +1617,8 @@
       <c r="N20" s="10">
         <v>378.6</v>
       </c>
-      <c r="O20" s="12">
-        <v>7.8607933803845125</v>
+      <c r="O20">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1665,8 +1664,8 @@
       <c r="N21" s="10">
         <v>232.7</v>
       </c>
-      <c r="O21" s="12">
-        <v>7.4383452665075627</v>
+      <c r="O21">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1712,8 +1711,8 @@
       <c r="N22" s="10">
         <v>409</v>
       </c>
-      <c r="O22" s="12">
-        <v>7.549728752260398</v>
+      <c r="O22">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1759,8 +1758,8 @@
       <c r="N23" s="10">
         <v>150.1</v>
       </c>
-      <c r="O23" s="12">
-        <v>7.6307692307692303</v>
+      <c r="O23">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1806,8 +1805,8 @@
       <c r="N24" s="10">
         <v>433</v>
       </c>
-      <c r="O24" s="12">
-        <v>9.0909090909090935</v>
+      <c r="O24">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1853,8 +1852,8 @@
       <c r="N25" s="10">
         <v>330.3</v>
       </c>
-      <c r="O25" s="12">
-        <v>7.4789915966386511</v>
+      <c r="O25">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1900,8 +1899,8 @@
       <c r="N26" s="10">
         <v>30.9</v>
       </c>
-      <c r="O26" s="12">
-        <v>7.2072072072072002</v>
+      <c r="O26">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1947,8 +1946,8 @@
       <c r="N27" s="10">
         <v>388.8</v>
       </c>
-      <c r="O27" s="12">
-        <v>7.5166508087535551</v>
+      <c r="O27">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1994,8 +1993,8 @@
       <c r="N28" s="10">
         <v>117.1</v>
       </c>
-      <c r="O28" s="12">
-        <v>7.4308300395256932</v>
+      <c r="O28">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2041,8 +2040,8 @@
       <c r="N29" s="10">
         <v>237.1</v>
       </c>
-      <c r="O29" s="12">
-        <v>7.8149300155521022</v>
+      <c r="O29">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2088,8 +2087,8 @@
       <c r="N30" s="10">
         <v>189.6</v>
       </c>
-      <c r="O30" s="12">
-        <v>7.4218750000000107</v>
+      <c r="O30">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2135,8 +2134,8 @@
       <c r="N31" s="10">
         <v>244.6</v>
       </c>
-      <c r="O31" s="12">
-        <v>7.7329309694455066</v>
+      <c r="O31">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2182,8 +2181,8 @@
       <c r="N32" s="10">
         <v>30.3</v>
       </c>
-      <c r="O32" s="12">
-        <v>7.3394495412844041</v>
+      <c r="O32">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2229,8 +2228,8 @@
       <c r="N33" s="10">
         <v>381.3</v>
       </c>
-      <c r="O33" s="12">
-        <v>7.8985507246376763</v>
+      <c r="O33">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2276,8 +2275,8 @@
       <c r="N34" s="10">
         <v>150.80000000000001</v>
       </c>
-      <c r="O34" s="12">
-        <v>7.2570725707256978</v>
+      <c r="O34">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2323,8 +2322,8 @@
       <c r="N35" s="10">
         <v>80.900000000000006</v>
       </c>
-      <c r="O35" s="12">
-        <v>7.1182548794488927</v>
+      <c r="O35">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2370,8 +2369,8 @@
       <c r="N36" s="10">
         <v>443.5</v>
       </c>
-      <c r="O36" s="12">
-        <v>8.1970606499689573</v>
+      <c r="O36">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2417,8 +2416,8 @@
       <c r="N37" s="10">
         <v>364.6</v>
       </c>
-      <c r="O37" s="12">
-        <v>7.9989906636386499</v>
+      <c r="O37">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
